--- a/excel_with_subclasses/basic/still_waters.xlsx
+++ b/excel_with_subclasses/basic/still_waters.xlsx
@@ -387,7 +387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,29 +619,29 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Q25498657</t>
+          <t>Q2550985</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>group of interconnected lakes</t>
+          <t>водная поверхность</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Q5926864_группа озёр</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Q2550985</t>
+          <t>Q2551525</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>водная поверхность</t>
+          <t>водный резервуар</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -653,97 +653,97 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Q2551525</t>
+          <t>Q28659441</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>водный резервуар</t>
+          <t>rain barrel</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q14552508_rainwater tank</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Q28659441</t>
+          <t>Q28858478</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rain barrel</t>
+          <t>watering trough</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Q14552508_rainwater tank</t>
+          <t>Q6501028_water tank</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Q28858478</t>
+          <t>Q291099</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>watering trough</t>
+          <t>Stream pool</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Q6501028_water tank</t>
+          <t>Q3177968_пруд</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Q291099</t>
+          <t>Q303874</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Stream pool</t>
+          <t>сардоба</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Q3177968_пруд</t>
+          <t>Q838858_Цистерна</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Q303874</t>
+          <t>Q3177968</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>сардоба</t>
+          <t>пруд</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Q838858_Цистерна</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Q3177968</t>
+          <t>Q448531</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>пруд</t>
+          <t>Alvarsee</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -755,219 +755,185 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Q448531</t>
+          <t>Q583075</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Alvarsee</t>
+          <t>уровень грунтовых вод</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q208791_водоносный горизонт</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Q583075</t>
+          <t>Q61861051</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>уровень грунтовых вод</t>
+          <t>laguna</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Q208791_водоносный горизонт</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Q5926864</t>
+          <t>Q6501028</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>группа озёр</t>
+          <t>water tank</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q2551525_водный резервуар</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Q61861051</t>
+          <t>Q7198250</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>laguna</t>
+          <t>Piscina Publica</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q93429857_ancient Roman cistern</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Q6501028</t>
+          <t>Q735881</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>water tank</t>
+          <t>bog pond</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Q2551525_водный резервуар</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Q7198250</t>
+          <t>Q7646113</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Piscina Publica</t>
+          <t>Surficial aquifer</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Q93429857_ancient Roman cistern</t>
+          <t>Q208791_водоносный горизонт</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Q735881</t>
+          <t>Q838858</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>bog pond</t>
+          <t>Цистерна</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Q337567_водоём</t>
+          <t>Q2551525_водный резервуар</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Q7646113</t>
+          <t>Q85842470</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Surficial aquifer</t>
+          <t>искусственный пруд</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Q208791_водоносный горизонт</t>
+          <t>Q3177968_пруд</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q838858</t>
+          <t>Q932689</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Цистерна</t>
+          <t>поильник</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Q2551525_водный резервуар</t>
+          <t>Q337567_водоём</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q85842470</t>
+          <t>Q93429857</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>искусственный пруд</t>
+          <t>ancient Roman cistern</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Q3177968_пруд</t>
+          <t>Q838858_Цистерна</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Q932689</t>
+          <t>Q96091671</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>поильник</t>
+          <t>water jar</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
-        <is>
-          <t>Q337567_водоём</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Q93429857</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ancient Roman cistern</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Q838858_Цистерна</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Q96091671</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>water jar</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>Q6501028_water tank</t>
         </is>
